--- a/REGULAR/MALIGAYA, NELITA.xlsx
+++ b/REGULAR/MALIGAYA, NELITA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\CENRO-HSKB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{953B702D-8FE0-485E-80BE-1253D0ADEC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3403AD-A8E7-40B2-85C4-55064C01EC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="248">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1813,9 +1813,9 @@
   <dimension ref="A2:K627"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3888" topLeftCell="A450" activePane="bottomLeft"/>
+      <pane ySplit="3888" topLeftCell="A448" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="I454" sqref="I454"/>
+      <selection pane="bottomLeft" activeCell="B456" sqref="B456"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1974,7 +1974,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>182.363</v>
+        <v>183.613</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1984,7 +1984,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>340.04200000000003</v>
+        <v>341.29200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11542,19 +11542,25 @@
       <c r="A455" s="40">
         <v>44986</v>
       </c>
-      <c r="B455" s="20"/>
-      <c r="C455" s="13"/>
+      <c r="B455" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C455" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D455" s="39"/>
       <c r="E455" s="9"/>
       <c r="F455" s="20"/>
-      <c r="G455" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G455" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H455" s="39"/>
       <c r="I455" s="9"/>
       <c r="J455" s="11"/>
-      <c r="K455" s="20"/>
+      <c r="K455" s="49">
+        <v>45015</v>
+      </c>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">

--- a/REGULAR/MALIGAYA, NELITA.xlsx
+++ b/REGULAR/MALIGAYA, NELITA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3403AD-A8E7-40B2-85C4-55064C01EC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="248">
   <si>
     <t>PERIOD</t>
   </si>
@@ -783,7 +782,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1481,25 +1480,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K627" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K627" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1806,34 +1805,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K627"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="3888" topLeftCell="A448" activePane="bottomLeft"/>
+      <pane ySplit="4050" topLeftCell="A448" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B456" sqref="B456"/>
+      <selection pane="bottomLeft" activeCell="J459" sqref="J459"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1854,7 +1853,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1872,7 +1871,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1892,7 +1891,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1900,7 +1899,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1913,7 +1912,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -1930,7 +1929,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1965,7 +1964,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1974,7 +1973,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>183.613</v>
+        <v>187.363</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1984,12 +1983,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>341.29200000000003</v>
+        <v>344.04200000000003</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -2013,7 +2012,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40"/>
       <c r="B11" s="20" t="s">
         <v>46</v>
@@ -2031,7 +2030,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>35977</v>
       </c>
@@ -2057,7 +2056,7 @@
         <v>36005</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>48</v>
@@ -2074,7 +2073,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>36008</v>
       </c>
@@ -2100,7 +2099,7 @@
         <v>36017</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20" t="s">
         <v>47</v>
@@ -2119,7 +2118,7 @@
         <v>36035</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20" t="s">
         <v>50</v>
@@ -2136,7 +2135,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>36039</v>
       </c>
@@ -2160,7 +2159,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>36069</v>
       </c>
@@ -2184,7 +2183,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>52</v>
@@ -2201,7 +2200,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>36100</v>
       </c>
@@ -2225,7 +2224,7 @@
       <c r="J20" s="12"/>
       <c r="K20" s="15"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>36130</v>
       </c>
@@ -2251,7 +2250,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>50</v>
@@ -2271,7 +2270,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>56</v>
       </c>
@@ -2289,7 +2288,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>36161</v>
       </c>
@@ -2315,7 +2314,7 @@
         <v>36166</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>57</v>
@@ -2332,7 +2331,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>36192</v>
       </c>
@@ -2356,7 +2355,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>36220</v>
       </c>
@@ -2382,7 +2381,7 @@
         <v>36237</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>36251</v>
       </c>
@@ -2408,7 +2407,7 @@
         <v>36266</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>60</v>
@@ -2425,7 +2424,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>36281</v>
       </c>
@@ -2451,7 +2450,7 @@
         <v>36283</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>36312</v>
       </c>
@@ -2475,7 +2474,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>36342</v>
       </c>
@@ -2499,7 +2498,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>36373</v>
       </c>
@@ -2513,7 +2512,7 @@
         <v>36383</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>61</v>
@@ -2535,7 +2534,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>36404</v>
       </c>
@@ -2561,7 +2560,7 @@
         <v>36441</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>62</v>
@@ -2578,7 +2577,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>36434</v>
       </c>
@@ -2604,7 +2603,7 @@
         <v>36460</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>63</v>
@@ -2621,7 +2620,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>36465</v>
       </c>
@@ -2647,7 +2646,7 @@
         <v>36493</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>49</v>
@@ -2666,7 +2665,7 @@
         <v>36490</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>36495</v>
       </c>
@@ -2692,7 +2691,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>66</v>
@@ -2712,7 +2711,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="48" t="s">
         <v>67</v>
       </c>
@@ -2730,7 +2729,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>36526</v>
       </c>
@@ -2756,7 +2755,7 @@
         <v>36544</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>68</v>
@@ -2773,7 +2772,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>36557</v>
       </c>
@@ -2799,7 +2798,7 @@
         <v>36565</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>36586</v>
       </c>
@@ -2825,7 +2824,7 @@
         <v>36609</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>36617</v>
       </c>
@@ -2851,7 +2850,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>49</v>
@@ -2870,7 +2869,7 @@
         <v>36641</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>49</v>
@@ -2889,7 +2888,7 @@
         <v>36643</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>36647</v>
       </c>
@@ -2915,7 +2914,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>70</v>
@@ -2932,7 +2931,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>36678</v>
       </c>
@@ -2952,7 +2951,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>36708</v>
       </c>
@@ -2972,7 +2971,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>36739</v>
       </c>
@@ -2996,7 +2995,7 @@
         <v>36746</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20" t="s">
         <v>73</v>
@@ -3013,7 +3012,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="49"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>36770</v>
       </c>
@@ -3033,7 +3032,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>36800</v>
       </c>
@@ -3057,7 +3056,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>36831</v>
       </c>
@@ -3081,7 +3080,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>36861</v>
       </c>
@@ -3105,7 +3104,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="48" t="s">
         <v>77</v>
       </c>
@@ -3123,7 +3122,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>36892</v>
       </c>
@@ -3143,7 +3142,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>36923</v>
       </c>
@@ -3169,7 +3168,7 @@
         <v>36928</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>61</v>
@@ -3188,7 +3187,7 @@
         <v>36980</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>36951</v>
       </c>
@@ -3208,7 +3207,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>36982</v>
       </c>
@@ -3232,7 +3231,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>37012</v>
       </c>
@@ -3258,7 +3257,7 @@
         <v>37018</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>79</v>
@@ -3277,7 +3276,7 @@
         <v>37046</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>37043</v>
       </c>
@@ -3297,7 +3296,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>37073</v>
       </c>
@@ -3321,7 +3320,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>37104</v>
       </c>
@@ -3347,7 +3346,7 @@
         <v>37131</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>81</v>
@@ -3364,7 +3363,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>37135</v>
       </c>
@@ -3388,7 +3387,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>37165</v>
       </c>
@@ -3414,7 +3413,7 @@
         <v>37211</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>82</v>
@@ -3431,7 +3430,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="49"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>37196</v>
       </c>
@@ -3457,7 +3456,7 @@
         <v>37218</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>47</v>
@@ -3476,7 +3475,7 @@
         <v>37209</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>83</v>
@@ -3493,7 +3492,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>37226</v>
       </c>
@@ -3517,7 +3516,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="48" t="s">
         <v>84</v>
       </c>
@@ -3535,7 +3534,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>37257</v>
       </c>
@@ -3555,7 +3554,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>37288</v>
       </c>
@@ -3581,7 +3580,7 @@
         <v>37314</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>37316</v>
       </c>
@@ -3607,7 +3606,7 @@
         <v>37335</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>86</v>
@@ -3626,7 +3625,7 @@
         <v>37360</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>37347</v>
       </c>
@@ -3652,7 +3651,7 @@
         <v>37376</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>47</v>
@@ -3671,7 +3670,7 @@
         <v>37382</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>87</v>
@@ -3688,7 +3687,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>37377</v>
       </c>
@@ -3714,7 +3713,7 @@
         <v>37386</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>88</v>
@@ -3733,7 +3732,7 @@
         <v>37435</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>37408</v>
       </c>
@@ -3753,7 +3752,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>37438</v>
       </c>
@@ -3779,7 +3778,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>37469</v>
       </c>
@@ -3799,7 +3798,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>37500</v>
       </c>
@@ -3819,7 +3818,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>37530</v>
       </c>
@@ -3839,7 +3838,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>37561</v>
       </c>
@@ -3859,7 +3858,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>37591</v>
       </c>
@@ -3879,7 +3878,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="48" t="s">
         <v>91</v>
       </c>
@@ -3897,7 +3896,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>37622</v>
       </c>
@@ -3923,7 +3922,7 @@
         <v>37636</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>37653</v>
       </c>
@@ -3943,7 +3942,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>37681</v>
       </c>
@@ -3963,7 +3962,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>37712</v>
       </c>
@@ -3989,7 +3988,7 @@
         <v>37746</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>37742</v>
       </c>
@@ -4009,7 +4008,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>37773</v>
       </c>
@@ -4029,7 +4028,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>37803</v>
       </c>
@@ -4055,7 +4054,7 @@
         <v>37820</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>37834</v>
       </c>
@@ -4081,7 +4080,7 @@
         <v>37861</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>37865</v>
       </c>
@@ -4101,7 +4100,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>37895</v>
       </c>
@@ -4127,7 +4126,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>37926</v>
       </c>
@@ -4147,7 +4146,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>37956</v>
       </c>
@@ -4171,7 +4170,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="48" t="s">
         <v>94</v>
       </c>
@@ -4189,7 +4188,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>37987</v>
       </c>
@@ -4213,7 +4212,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>38018</v>
       </c>
@@ -4239,7 +4238,7 @@
         <v>38034</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>96</v>
@@ -4256,7 +4255,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>38047</v>
       </c>
@@ -4280,7 +4279,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>38078</v>
       </c>
@@ -4304,7 +4303,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>38108</v>
       </c>
@@ -4330,7 +4329,7 @@
         <v>38110</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>49</v>
@@ -4349,7 +4348,7 @@
         <v>38132</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>99</v>
@@ -4368,7 +4367,7 @@
         <v>38145</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>38139</v>
       </c>
@@ -4394,7 +4393,7 @@
         <v>38166</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>38169</v>
       </c>
@@ -4420,7 +4419,7 @@
         <v>38174</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>49</v>
@@ -4439,7 +4438,7 @@
         <v>38195</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>101</v>
@@ -4456,7 +4455,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>38200</v>
       </c>
@@ -4482,7 +4481,7 @@
         <v>38225</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>102</v>
@@ -4501,7 +4500,7 @@
         <v>38225</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>38231</v>
       </c>
@@ -4525,7 +4524,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>38261</v>
       </c>
@@ -4551,7 +4550,7 @@
         <v>38275</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>104</v>
@@ -4568,7 +4567,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>38292</v>
       </c>
@@ -4592,7 +4591,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>38322</v>
       </c>
@@ -4616,7 +4615,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="48" t="s">
         <v>107</v>
       </c>
@@ -4634,7 +4633,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>38353</v>
       </c>
@@ -4658,7 +4657,7 @@
         <v>38358</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20" t="s">
         <v>109</v>
@@ -4675,7 +4674,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>38384</v>
       </c>
@@ -4699,7 +4698,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>38412</v>
       </c>
@@ -4725,7 +4724,7 @@
         <v>38441</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20" t="s">
         <v>111</v>
@@ -4744,7 +4743,7 @@
         <v>38456</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>113</v>
@@ -4761,7 +4760,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>38443</v>
       </c>
@@ -4787,7 +4786,7 @@
         <v>38474</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>112</v>
@@ -4804,7 +4803,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>38473</v>
       </c>
@@ -4830,7 +4829,7 @@
         <v>38531</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>38504</v>
       </c>
@@ -4856,7 +4855,7 @@
         <v>44729</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>58</v>
@@ -4873,7 +4872,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>38534</v>
       </c>
@@ -4897,7 +4896,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>38565</v>
       </c>
@@ -4917,7 +4916,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>38596</v>
       </c>
@@ -4943,7 +4942,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>117</v>
@@ -4960,7 +4959,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>38626</v>
       </c>
@@ -4986,7 +4985,7 @@
         <v>38637</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>118</v>
@@ -5003,7 +5002,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>38657</v>
       </c>
@@ -5029,7 +5028,7 @@
         <v>38681</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>120</v>
@@ -5046,7 +5045,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>38687</v>
       </c>
@@ -5070,7 +5069,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="48" t="s">
         <v>122</v>
       </c>
@@ -5088,7 +5087,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>38718</v>
       </c>
@@ -5112,7 +5111,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>38749</v>
       </c>
@@ -5136,7 +5135,7 @@
         <v>38749</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20" t="s">
         <v>108</v>
@@ -5153,7 +5152,7 @@
         <v>38771</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>92</v>
@@ -5172,7 +5171,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>124</v>
@@ -5189,7 +5188,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>38777</v>
       </c>
@@ -5213,7 +5212,7 @@
         <v>38793</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>125</v>
@@ -5230,7 +5229,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>38808</v>
       </c>
@@ -5256,7 +5255,7 @@
         <v>38834</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>111</v>
@@ -5275,7 +5274,7 @@
         <v>38856</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20" t="s">
         <v>126</v>
@@ -5292,7 +5291,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>38838</v>
       </c>
@@ -5316,7 +5315,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>38869</v>
       </c>
@@ -5340,7 +5339,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>38899</v>
       </c>
@@ -5364,7 +5363,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>38930</v>
       </c>
@@ -5388,7 +5387,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>38961</v>
       </c>
@@ -5414,7 +5413,7 @@
         <v>38982</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>86</v>
@@ -5431,7 +5430,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>38991</v>
       </c>
@@ -5457,7 +5456,7 @@
         <v>39021</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>132</v>
@@ -5474,7 +5473,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>39022</v>
       </c>
@@ -5500,7 +5499,7 @@
         <v>39065</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20" t="s">
         <v>133</v>
@@ -5517,7 +5516,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>39052</v>
       </c>
@@ -5541,7 +5540,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="48" t="s">
         <v>135</v>
       </c>
@@ -5559,7 +5558,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>39083</v>
       </c>
@@ -5585,7 +5584,7 @@
         <v>39098</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>136</v>
@@ -5602,7 +5601,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>39114</v>
       </c>
@@ -5626,7 +5625,7 @@
         <v>39125</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20" t="s">
         <v>137</v>
@@ -5643,7 +5642,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>39142</v>
       </c>
@@ -5667,7 +5666,7 @@
         <v>39171</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>108</v>
@@ -5684,7 +5683,7 @@
         <v>39206</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20" t="s">
         <v>138</v>
@@ -5701,7 +5700,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>39173</v>
       </c>
@@ -5725,7 +5724,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>39203</v>
       </c>
@@ -5749,7 +5748,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>39234</v>
       </c>
@@ -5775,7 +5774,7 @@
         <v>39288</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>141</v>
@@ -5792,7 +5791,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>39264</v>
       </c>
@@ -5816,7 +5815,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>39295</v>
       </c>
@@ -5840,7 +5839,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>39326</v>
       </c>
@@ -5866,7 +5865,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>144</v>
@@ -5883,7 +5882,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>39356</v>
       </c>
@@ -5907,7 +5906,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>39387</v>
       </c>
@@ -5933,7 +5932,7 @@
         <v>39442</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20" t="s">
         <v>146</v>
@@ -5950,7 +5949,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>39417</v>
       </c>
@@ -5974,7 +5973,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="48" t="s">
         <v>148</v>
       </c>
@@ -5992,7 +5991,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>39448</v>
       </c>
@@ -6016,7 +6015,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>39479</v>
       </c>
@@ -6040,7 +6039,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>39508</v>
       </c>
@@ -6064,7 +6063,7 @@
         <v>39538</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>108</v>
@@ -6081,7 +6080,7 @@
         <v>39542</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>151</v>
@@ -6098,7 +6097,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>39539</v>
       </c>
@@ -6122,7 +6121,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>39569</v>
       </c>
@@ -6148,7 +6147,7 @@
         <v>39626</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>153</v>
@@ -6165,7 +6164,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>39600</v>
       </c>
@@ -6191,7 +6190,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>155</v>
@@ -6208,7 +6207,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>39630</v>
       </c>
@@ -6234,7 +6233,7 @@
         <v>39658</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>157</v>
@@ -6251,7 +6250,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>39661</v>
       </c>
@@ -6275,7 +6274,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>39692</v>
       </c>
@@ -6299,7 +6298,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>39722</v>
       </c>
@@ -6323,7 +6322,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>39753</v>
       </c>
@@ -6349,7 +6348,7 @@
         <v>39779</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>161</v>
@@ -6366,7 +6365,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>39783</v>
       </c>
@@ -6390,7 +6389,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>162</v>
@@ -6410,7 +6409,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="48" t="s">
         <v>163</v>
       </c>
@@ -6428,7 +6427,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>39814</v>
       </c>
@@ -6452,7 +6451,7 @@
         <v>44581</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20" t="s">
         <v>129</v>
@@ -6469,7 +6468,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>39845</v>
       </c>
@@ -6493,7 +6492,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>39873</v>
       </c>
@@ -6519,7 +6518,7 @@
         <v>39891</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>111</v>
@@ -6538,7 +6537,7 @@
         <v>39902</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20" t="s">
         <v>165</v>
@@ -6555,7 +6554,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>39904</v>
       </c>
@@ -6581,7 +6580,7 @@
         <v>39916</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20" t="s">
         <v>166</v>
@@ -6598,7 +6597,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>39934</v>
       </c>
@@ -6622,7 +6621,7 @@
         <v>39959</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>167</v>
@@ -6639,7 +6638,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>39965</v>
       </c>
@@ -6663,7 +6662,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>39995</v>
       </c>
@@ -6687,7 +6686,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>40026</v>
       </c>
@@ -6713,7 +6712,7 @@
         <v>40043</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>170</v>
@@ -6730,7 +6729,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>40057</v>
       </c>
@@ -6754,7 +6753,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>40087</v>
       </c>
@@ -6778,7 +6777,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>40118</v>
       </c>
@@ -6802,7 +6801,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>40148</v>
       </c>
@@ -6828,7 +6827,7 @@
         <v>40169</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20" t="s">
         <v>59</v>
@@ -6848,7 +6847,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="48" t="s">
         <v>174</v>
       </c>
@@ -6866,7 +6865,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>40179</v>
       </c>
@@ -6890,7 +6889,7 @@
         <v>40186</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>175</v>
@@ -6907,7 +6906,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>40210</v>
       </c>
@@ -6933,7 +6932,7 @@
         <v>40267</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>176</v>
@@ -6950,7 +6949,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>40238</v>
       </c>
@@ -6974,7 +6973,7 @@
         <v>40281</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>177</v>
@@ -6991,7 +6990,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>40269</v>
       </c>
@@ -7015,7 +7014,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>40299</v>
       </c>
@@ -7039,7 +7038,7 @@
         <v>40326</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>102</v>
@@ -7056,7 +7055,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>40330</v>
       </c>
@@ -7080,7 +7079,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>40360</v>
       </c>
@@ -7106,7 +7105,7 @@
         <v>40374</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>111</v>
@@ -7125,7 +7124,7 @@
         <v>40382</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>180</v>
@@ -7142,7 +7141,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40">
         <v>40391</v>
       </c>
@@ -7168,7 +7167,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>181</v>
@@ -7185,7 +7184,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>40422</v>
       </c>
@@ -7209,7 +7208,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>40452</v>
       </c>
@@ -7233,7 +7232,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>40483</v>
       </c>
@@ -7259,7 +7258,7 @@
         <v>40505</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>183</v>
@@ -7276,7 +7275,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>40513</v>
       </c>
@@ -7300,7 +7299,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="48" t="s">
         <v>186</v>
       </c>
@@ -7318,7 +7317,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>40544</v>
       </c>
@@ -7342,7 +7341,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>40575</v>
       </c>
@@ -7366,7 +7365,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>40603</v>
       </c>
@@ -7390,7 +7389,7 @@
         <v>40632</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>189</v>
@@ -7407,7 +7406,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>40634</v>
       </c>
@@ -7431,7 +7430,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>40664</v>
       </c>
@@ -7451,7 +7450,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40">
         <v>40695</v>
       </c>
@@ -7475,7 +7474,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40">
         <v>40725</v>
       </c>
@@ -7499,7 +7498,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>40756</v>
       </c>
@@ -7523,7 +7522,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>40787</v>
       </c>
@@ -7549,7 +7548,7 @@
         <v>40830</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>193</v>
@@ -7566,7 +7565,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>40817</v>
       </c>
@@ -7592,7 +7591,7 @@
         <v>40869</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>108</v>
@@ -7609,7 +7608,7 @@
         <v>40855</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40"/>
       <c r="B268" s="20" t="s">
         <v>179</v>
@@ -7626,7 +7625,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>40848</v>
       </c>
@@ -7650,7 +7649,7 @@
         <v>40865</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>194</v>
@@ -7672,7 +7671,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>195</v>
@@ -7692,7 +7691,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>40878</v>
       </c>
@@ -7716,7 +7715,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="48" t="s">
         <v>198</v>
       </c>
@@ -7734,7 +7733,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>40909</v>
       </c>
@@ -7758,7 +7757,7 @@
         <v>40939</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>40940</v>
       </c>
@@ -7782,7 +7781,7 @@
         <v>40947</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>108</v>
@@ -7799,7 +7798,7 @@
         <v>40958</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>50</v>
@@ -7816,7 +7815,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>40969</v>
       </c>
@@ -7842,7 +7841,7 @@
         <v>40998</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>49</v>
@@ -7861,7 +7860,7 @@
         <v>40997</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>199</v>
@@ -7878,7 +7877,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40">
         <v>41000</v>
       </c>
@@ -7904,7 +7903,7 @@
         <v>41017</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>200</v>
@@ -7921,7 +7920,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>41030</v>
       </c>
@@ -7947,7 +7946,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>49</v>
@@ -7966,7 +7965,7 @@
         <v>41037</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40"/>
       <c r="B285" s="20" t="s">
         <v>49</v>
@@ -7985,7 +7984,7 @@
         <v>41044</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>49</v>
@@ -8004,7 +8003,7 @@
         <v>41057</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>201</v>
@@ -8021,7 +8020,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>41061</v>
       </c>
@@ -8047,7 +8046,7 @@
         <v>41068</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40"/>
       <c r="B289" s="20" t="s">
         <v>49</v>
@@ -8066,7 +8065,7 @@
         <v>41096</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>202</v>
@@ -8083,7 +8082,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>41091</v>
       </c>
@@ -8107,7 +8106,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>41122</v>
       </c>
@@ -8131,7 +8130,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>41153</v>
       </c>
@@ -8157,7 +8156,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>207</v>
@@ -8174,7 +8173,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>41183</v>
       </c>
@@ -8200,7 +8199,7 @@
         <v>41186</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>111</v>
@@ -8219,7 +8218,7 @@
         <v>41246</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>208</v>
@@ -8236,7 +8235,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>41214</v>
       </c>
@@ -8262,7 +8261,7 @@
         <v>41271</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>209</v>
@@ -8279,7 +8278,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>41244</v>
       </c>
@@ -8305,7 +8304,7 @@
         <v>41262</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>49</v>
@@ -8325,7 +8324,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40"/>
       <c r="B302" s="20" t="s">
         <v>210</v>
@@ -8345,7 +8344,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="48" t="s">
         <v>211</v>
       </c>
@@ -8363,7 +8362,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>41275</v>
       </c>
@@ -8389,7 +8388,7 @@
         <v>41612</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>108</v>
@@ -8406,7 +8405,7 @@
         <v>41299</v>
       </c>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>212</v>
@@ -8423,7 +8422,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>41306</v>
       </c>
@@ -8447,7 +8446,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>41334</v>
       </c>
@@ -8467,7 +8466,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>41365</v>
       </c>
@@ -8491,7 +8490,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>41395</v>
       </c>
@@ -8515,7 +8514,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>215</v>
@@ -8534,7 +8533,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>173</v>
@@ -8551,7 +8550,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>41426</v>
       </c>
@@ -8575,7 +8574,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>41456</v>
       </c>
@@ -8601,7 +8600,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>41487</v>
       </c>
@@ -8621,7 +8620,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>41518</v>
       </c>
@@ -8641,7 +8640,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>41548</v>
       </c>
@@ -8661,7 +8660,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>41579</v>
       </c>
@@ -8687,7 +8686,7 @@
         <v>41548</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>41609</v>
       </c>
@@ -8713,7 +8712,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="48" t="s">
         <v>221</v>
       </c>
@@ -8731,7 +8730,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>41640</v>
       </c>
@@ -8751,7 +8750,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>41671</v>
       </c>
@@ -8771,7 +8770,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>41699</v>
       </c>
@@ -8791,7 +8790,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>41730</v>
       </c>
@@ -8811,7 +8810,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>41760</v>
       </c>
@@ -8831,7 +8830,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>41791</v>
       </c>
@@ -8851,7 +8850,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>41821</v>
       </c>
@@ -8871,7 +8870,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>41852</v>
       </c>
@@ -8891,7 +8890,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>41883</v>
       </c>
@@ -8911,7 +8910,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>41913</v>
       </c>
@@ -8931,7 +8930,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>41944</v>
       </c>
@@ -8951,7 +8950,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>41974</v>
       </c>
@@ -8975,7 +8974,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="48" t="s">
         <v>223</v>
       </c>
@@ -8993,7 +8992,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>42005</v>
       </c>
@@ -9013,7 +9012,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>42036</v>
       </c>
@@ -9033,7 +9032,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>42064</v>
       </c>
@@ -9053,7 +9052,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>42095</v>
       </c>
@@ -9073,7 +9072,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>42125</v>
       </c>
@@ -9093,7 +9092,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>42156</v>
       </c>
@@ -9113,7 +9112,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>42186</v>
       </c>
@@ -9133,7 +9132,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>42217</v>
       </c>
@@ -9153,7 +9152,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>42248</v>
       </c>
@@ -9173,7 +9172,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>42278</v>
       </c>
@@ -9193,7 +9192,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>42309</v>
       </c>
@@ -9213,7 +9212,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>42339</v>
       </c>
@@ -9237,7 +9236,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="48" t="s">
         <v>224</v>
       </c>
@@ -9255,7 +9254,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>42370</v>
       </c>
@@ -9275,7 +9274,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>42401</v>
       </c>
@@ -9295,7 +9294,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>42430</v>
       </c>
@@ -9315,7 +9314,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>42461</v>
       </c>
@@ -9335,7 +9334,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>42491</v>
       </c>
@@ -9355,7 +9354,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>42522</v>
       </c>
@@ -9375,7 +9374,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>42552</v>
       </c>
@@ -9401,7 +9400,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40"/>
       <c r="B354" s="20" t="s">
         <v>69</v>
@@ -9420,7 +9419,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>42583</v>
       </c>
@@ -9446,7 +9445,7 @@
         <v>42601</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40"/>
       <c r="B356" s="20" t="s">
         <v>49</v>
@@ -9465,7 +9464,7 @@
         <v>42613</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40">
         <v>42614</v>
       </c>
@@ -9491,7 +9490,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>42644</v>
       </c>
@@ -9511,7 +9510,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>42675</v>
       </c>
@@ -9531,7 +9530,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>42705</v>
       </c>
@@ -9555,7 +9554,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="48" t="s">
         <v>228</v>
       </c>
@@ -9573,7 +9572,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>42736</v>
       </c>
@@ -9593,7 +9592,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>42767</v>
       </c>
@@ -9613,7 +9612,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>42795</v>
       </c>
@@ -9639,7 +9638,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>42826</v>
       </c>
@@ -9659,7 +9658,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>42856</v>
       </c>
@@ -9685,7 +9684,7 @@
         <v>42866</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>69</v>
@@ -9704,7 +9703,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>42887</v>
       </c>
@@ -9730,7 +9729,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40">
         <v>42917</v>
       </c>
@@ -9756,7 +9755,7 @@
         <v>42920</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>49</v>
@@ -9775,7 +9774,7 @@
         <v>42920</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40"/>
       <c r="B371" s="20" t="s">
         <v>49</v>
@@ -9794,7 +9793,7 @@
         <v>42941</v>
       </c>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>42948</v>
       </c>
@@ -9814,7 +9813,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>42979</v>
       </c>
@@ -9834,7 +9833,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>43009</v>
       </c>
@@ -9860,7 +9859,7 @@
         <v>43018</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>43040</v>
       </c>
@@ -9880,7 +9879,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>43070</v>
       </c>
@@ -9906,7 +9905,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="48" t="s">
         <v>235</v>
       </c>
@@ -9924,7 +9923,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>43101</v>
       </c>
@@ -9950,7 +9949,7 @@
         <v>43112</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>43132</v>
       </c>
@@ -9970,7 +9969,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>43160</v>
       </c>
@@ -9990,7 +9989,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>43191</v>
       </c>
@@ -10010,7 +10009,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>43221</v>
       </c>
@@ -10030,7 +10029,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>43252</v>
       </c>
@@ -10050,7 +10049,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>43282</v>
       </c>
@@ -10070,7 +10069,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>43313</v>
       </c>
@@ -10090,7 +10089,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>43344</v>
       </c>
@@ -10110,7 +10109,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>43374</v>
       </c>
@@ -10130,7 +10129,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>43405</v>
       </c>
@@ -10150,7 +10149,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>43435</v>
       </c>
@@ -10174,7 +10173,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="48" t="s">
         <v>236</v>
       </c>
@@ -10192,7 +10191,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>43466</v>
       </c>
@@ -10212,7 +10211,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>43497</v>
       </c>
@@ -10232,7 +10231,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>43525</v>
       </c>
@@ -10252,7 +10251,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>43556</v>
       </c>
@@ -10272,7 +10271,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>43586</v>
       </c>
@@ -10292,7 +10291,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>43617</v>
       </c>
@@ -10312,7 +10311,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>43647</v>
       </c>
@@ -10338,7 +10337,7 @@
         <v>43662</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40"/>
       <c r="B398" s="20" t="s">
         <v>54</v>
@@ -10357,7 +10356,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>49</v>
@@ -10376,7 +10375,7 @@
         <v>43683</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>43678</v>
       </c>
@@ -10396,7 +10395,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>43709</v>
       </c>
@@ -10422,7 +10421,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>49</v>
@@ -10441,7 +10440,7 @@
         <v>43734</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>43739</v>
       </c>
@@ -10467,7 +10466,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40"/>
       <c r="B404" s="20" t="s">
         <v>69</v>
@@ -10486,7 +10485,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>43770</v>
       </c>
@@ -10506,7 +10505,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>43800</v>
       </c>
@@ -10530,7 +10529,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="48" t="s">
         <v>242</v>
       </c>
@@ -10548,7 +10547,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>43831</v>
       </c>
@@ -10568,7 +10567,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>43862</v>
       </c>
@@ -10594,7 +10593,7 @@
         <v>43880</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>49</v>
@@ -10613,7 +10612,7 @@
         <v>43889</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>43891</v>
       </c>
@@ -10633,7 +10632,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>43922</v>
       </c>
@@ -10653,7 +10652,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>43952</v>
       </c>
@@ -10673,7 +10672,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>43983</v>
       </c>
@@ -10693,7 +10692,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>44013</v>
       </c>
@@ -10713,7 +10712,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>44044</v>
       </c>
@@ -10733,7 +10732,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>44075</v>
       </c>
@@ -10753,7 +10752,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>44105</v>
       </c>
@@ -10773,7 +10772,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>44136</v>
       </c>
@@ -10793,7 +10792,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>44166</v>
       </c>
@@ -10817,7 +10816,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="48" t="s">
         <v>243</v>
       </c>
@@ -10835,7 +10834,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>44197</v>
       </c>
@@ -10855,7 +10854,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>44228</v>
       </c>
@@ -10875,7 +10874,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>44256</v>
       </c>
@@ -10895,7 +10894,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>44287</v>
       </c>
@@ -10915,7 +10914,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>44317</v>
       </c>
@@ -10935,7 +10934,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>44348</v>
       </c>
@@ -10955,7 +10954,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>44378</v>
       </c>
@@ -10975,7 +10974,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>44409</v>
       </c>
@@ -10995,7 +10994,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>44440</v>
       </c>
@@ -11015,7 +11014,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>44470</v>
       </c>
@@ -11035,7 +11034,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>44501</v>
       </c>
@@ -11061,7 +11060,7 @@
         <v>44523</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40"/>
       <c r="B433" s="20" t="s">
         <v>49</v>
@@ -11080,7 +11079,7 @@
         <v>44241</v>
       </c>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>44531</v>
       </c>
@@ -11100,7 +11099,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="48" t="s">
         <v>244</v>
       </c>
@@ -11118,7 +11117,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>44562</v>
       </c>
@@ -11138,7 +11137,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>44593</v>
       </c>
@@ -11158,7 +11157,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>44621</v>
       </c>
@@ -11184,7 +11183,7 @@
         <v>44627</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40"/>
       <c r="B439" s="20" t="s">
         <v>108</v>
@@ -11201,7 +11200,7 @@
         <v>44650</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>44652</v>
       </c>
@@ -11221,7 +11220,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>44682</v>
       </c>
@@ -11241,7 +11240,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>44713</v>
       </c>
@@ -11261,7 +11260,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>44743</v>
       </c>
@@ -11287,7 +11286,7 @@
         <v>44754</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40"/>
       <c r="B444" s="20" t="s">
         <v>47</v>
@@ -11306,7 +11305,7 @@
         <v>44767</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>44774</v>
       </c>
@@ -11326,7 +11325,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>44805</v>
       </c>
@@ -11352,7 +11351,7 @@
         <v>44817</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>44835</v>
       </c>
@@ -11378,7 +11377,7 @@
         <v>44838</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>47</v>
@@ -11400,7 +11399,7 @@
         <v>44859</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>44866</v>
       </c>
@@ -11426,7 +11425,7 @@
         <v>44880</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>44896</v>
       </c>
@@ -11452,7 +11451,7 @@
         <v>44901</v>
       </c>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="48" t="s">
         <v>245</v>
       </c>
@@ -11470,7 +11469,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>44927</v>
       </c>
@@ -11496,7 +11495,7 @@
         <v>44964</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40"/>
       <c r="B453" s="20" t="s">
         <v>246</v>
@@ -11518,7 +11517,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>44958</v>
       </c>
@@ -11538,7 +11537,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>44986</v>
       </c>
@@ -11562,65 +11561,73 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>45017</v>
       </c>
       <c r="B456" s="20"/>
-      <c r="C456" s="13"/>
+      <c r="C456" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D456" s="39"/>
       <c r="E456" s="9"/>
       <c r="F456" s="20"/>
-      <c r="G456" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G456" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H456" s="39"/>
       <c r="I456" s="9"/>
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>45047</v>
       </c>
       <c r="B457" s="20"/>
-      <c r="C457" s="13"/>
+      <c r="C457" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D457" s="39"/>
       <c r="E457" s="9"/>
       <c r="F457" s="20"/>
-      <c r="G457" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G457" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H457" s="39"/>
       <c r="I457" s="9"/>
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>45078</v>
       </c>
       <c r="B458" s="20"/>
-      <c r="C458" s="13"/>
+      <c r="C458" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D458" s="39"/>
       <c r="E458" s="9"/>
       <c r="F458" s="20"/>
-      <c r="G458" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G458" s="42">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H458" s="39"/>
       <c r="I458" s="9"/>
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>45108</v>
       </c>
-      <c r="B459" s="20"/>
+      <c r="B459" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C459" s="13"/>
       <c r="D459" s="39"/>
       <c r="E459" s="9"/>
@@ -11629,12 +11636,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H459" s="39"/>
+      <c r="H459" s="39">
+        <v>1</v>
+      </c>
       <c r="I459" s="9"/>
       <c r="J459" s="11"/>
-      <c r="K459" s="20"/>
-    </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K459" s="49">
+        <v>45111</v>
+      </c>
+    </row>
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>45139</v>
       </c>
@@ -11652,7 +11663,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>45170</v>
       </c>
@@ -11670,7 +11681,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>45200</v>
       </c>
@@ -11688,7 +11699,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>45231</v>
       </c>
@@ -11706,7 +11717,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>45261</v>
       </c>
@@ -11724,7 +11735,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>45292</v>
       </c>
@@ -11742,7 +11753,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>45323</v>
       </c>
@@ -11760,7 +11771,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>45352</v>
       </c>
@@ -11778,7 +11789,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>45383</v>
       </c>
@@ -11796,7 +11807,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>45413</v>
       </c>
@@ -11814,7 +11825,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>45444</v>
       </c>
@@ -11832,7 +11843,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>45474</v>
       </c>
@@ -11850,7 +11861,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>45505</v>
       </c>
@@ -11868,7 +11879,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>45536</v>
       </c>
@@ -11886,7 +11897,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>45566</v>
       </c>
@@ -11904,7 +11915,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>45597</v>
       </c>
@@ -11922,7 +11933,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>45627</v>
       </c>
@@ -11940,7 +11951,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>45658</v>
       </c>
@@ -11958,7 +11969,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>45689</v>
       </c>
@@ -11976,7 +11987,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>45717</v>
       </c>
@@ -11994,7 +12005,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>45748</v>
       </c>
@@ -12012,7 +12023,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>45778</v>
       </c>
@@ -12030,7 +12041,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>45809</v>
       </c>
@@ -12048,7 +12059,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>45839</v>
       </c>
@@ -12066,7 +12077,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>45870</v>
       </c>
@@ -12084,7 +12095,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>45901</v>
       </c>
@@ -12102,7 +12113,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>45931</v>
       </c>
@@ -12120,7 +12131,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>45962</v>
       </c>
@@ -12138,7 +12149,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>45992</v>
       </c>
@@ -12156,7 +12167,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>46023</v>
       </c>
@@ -12174,7 +12185,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>46054</v>
       </c>
@@ -12192,7 +12203,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>46082</v>
       </c>
@@ -12210,7 +12221,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>46113</v>
       </c>
@@ -12228,7 +12239,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>46143</v>
       </c>
@@ -12246,7 +12257,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>46174</v>
       </c>
@@ -12264,7 +12275,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>46204</v>
       </c>
@@ -12282,7 +12293,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>46235</v>
       </c>
@@ -12300,7 +12311,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>46266</v>
       </c>
@@ -12318,7 +12329,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>46296</v>
       </c>
@@ -12336,7 +12347,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>46327</v>
       </c>
@@ -12354,7 +12365,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>46357</v>
       </c>
@@ -12372,7 +12383,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>46388</v>
       </c>
@@ -12390,7 +12401,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>46419</v>
       </c>
@@ -12408,7 +12419,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>46447</v>
       </c>
@@ -12426,7 +12437,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>46478</v>
       </c>
@@ -12444,7 +12455,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>46508</v>
       </c>
@@ -12462,7 +12473,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>46539</v>
       </c>
@@ -12480,7 +12491,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <v>46569</v>
       </c>
@@ -12498,7 +12509,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>46600</v>
       </c>
@@ -12516,7 +12527,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>46631</v>
       </c>
@@ -12534,7 +12545,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>46661</v>
       </c>
@@ -12552,7 +12563,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>46692</v>
       </c>
@@ -12570,7 +12581,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>46722</v>
       </c>
@@ -12588,7 +12599,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>46753</v>
       </c>
@@ -12606,7 +12617,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>46784</v>
       </c>
@@ -12624,7 +12635,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>46813</v>
       </c>
@@ -12642,7 +12653,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>46844</v>
       </c>
@@ -12660,7 +12671,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <v>46874</v>
       </c>
@@ -12678,7 +12689,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>46905</v>
       </c>
@@ -12696,7 +12707,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40">
         <v>46935</v>
       </c>
@@ -12714,7 +12725,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>46966</v>
       </c>
@@ -12732,7 +12743,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40">
         <v>46997</v>
       </c>
@@ -12750,7 +12761,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>47027</v>
       </c>
@@ -12768,7 +12779,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>47058</v>
       </c>
@@ -12786,7 +12797,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>47088</v>
       </c>
@@ -12804,7 +12815,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>47119</v>
       </c>
@@ -12822,7 +12833,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>47150</v>
       </c>
@@ -12840,7 +12851,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40">
         <v>47178</v>
       </c>
@@ -12858,7 +12869,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>47209</v>
       </c>
@@ -12876,7 +12887,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>47239</v>
       </c>
@@ -12894,7 +12905,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>47270</v>
       </c>
@@ -12912,7 +12923,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>47300</v>
       </c>
@@ -12930,7 +12941,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>47331</v>
       </c>
@@ -12948,7 +12959,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>47362</v>
       </c>
@@ -12966,7 +12977,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>47392</v>
       </c>
@@ -12984,7 +12995,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>47423</v>
       </c>
@@ -13002,7 +13013,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>47453</v>
       </c>
@@ -13020,7 +13031,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>47484</v>
       </c>
@@ -13038,7 +13049,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>47515</v>
       </c>
@@ -13056,7 +13067,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>47543</v>
       </c>
@@ -13074,7 +13085,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>47574</v>
       </c>
@@ -13092,7 +13103,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>47604</v>
       </c>
@@ -13110,7 +13121,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>47635</v>
       </c>
@@ -13128,7 +13139,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>47665</v>
       </c>
@@ -13146,7 +13157,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>47696</v>
       </c>
@@ -13164,7 +13175,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>47727</v>
       </c>
@@ -13182,7 +13193,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>47757</v>
       </c>
@@ -13200,7 +13211,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>47788</v>
       </c>
@@ -13218,7 +13229,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>47818</v>
       </c>
@@ -13236,7 +13247,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>47849</v>
       </c>
@@ -13254,7 +13265,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>47880</v>
       </c>
@@ -13272,7 +13283,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>47908</v>
       </c>
@@ -13290,7 +13301,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>47939</v>
       </c>
@@ -13308,7 +13319,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>47969</v>
       </c>
@@ -13326,7 +13337,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>48000</v>
       </c>
@@ -13344,7 +13355,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40">
         <v>48030</v>
       </c>
@@ -13362,7 +13373,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>48061</v>
       </c>
@@ -13380,7 +13391,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40">
         <v>48092</v>
       </c>
@@ -13398,7 +13409,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>48122</v>
       </c>
@@ -13416,7 +13427,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <v>48153</v>
       </c>
@@ -13434,7 +13445,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>48183</v>
       </c>
@@ -13452,7 +13463,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>48214</v>
       </c>
@@ -13470,7 +13481,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>48245</v>
       </c>
@@ -13488,7 +13499,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40">
         <v>48274</v>
       </c>
@@ -13506,7 +13517,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>48305</v>
       </c>
@@ -13524,7 +13535,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>48335</v>
       </c>
@@ -13542,7 +13553,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
         <v>48366</v>
       </c>
@@ -13560,7 +13571,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>48396</v>
       </c>
@@ -13578,7 +13589,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
         <v>48427</v>
       </c>
@@ -13596,7 +13607,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
         <v>48458</v>
       </c>
@@ -13614,7 +13625,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>48488</v>
       </c>
@@ -13632,7 +13643,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <v>48519</v>
       </c>
@@ -13650,7 +13661,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>48549</v>
       </c>
@@ -13668,7 +13679,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
         <v>48580</v>
       </c>
@@ -13686,7 +13697,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <v>48611</v>
       </c>
@@ -13704,7 +13715,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
         <v>48639</v>
       </c>
@@ -13722,7 +13733,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <v>48670</v>
       </c>
@@ -13740,7 +13751,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
         <v>48700</v>
       </c>
@@ -13758,7 +13769,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
         <v>48731</v>
       </c>
@@ -13776,7 +13787,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <v>48761</v>
       </c>
@@ -13794,7 +13805,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <v>48792</v>
       </c>
@@ -13812,7 +13823,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
         <v>48823</v>
       </c>
@@ -13830,7 +13841,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
         <v>48853</v>
       </c>
@@ -13848,7 +13859,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
         <v>48884</v>
       </c>
@@ -13866,7 +13877,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
         <v>48914</v>
       </c>
@@ -13884,7 +13895,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <v>48945</v>
       </c>
@@ -13902,7 +13913,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>48976</v>
       </c>
@@ -13920,7 +13931,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <v>49004</v>
       </c>
@@ -13938,7 +13949,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <v>49035</v>
       </c>
@@ -13956,7 +13967,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <v>49065</v>
       </c>
@@ -13974,7 +13985,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
         <v>49096</v>
       </c>
@@ -13992,7 +14003,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
         <v>49126</v>
       </c>
@@ -14010,7 +14021,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
         <v>49157</v>
       </c>
@@ -14028,7 +14039,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <v>49188</v>
       </c>
@@ -14046,7 +14057,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <v>49218</v>
       </c>
@@ -14064,7 +14075,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
         <v>49249</v>
       </c>
@@ -14082,7 +14093,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <v>49279</v>
       </c>
@@ -14100,7 +14111,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
         <v>49310</v>
       </c>
@@ -14118,7 +14129,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
         <v>49341</v>
       </c>
@@ -14136,7 +14147,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
         <v>49369</v>
       </c>
@@ -14154,7 +14165,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <v>49400</v>
       </c>
@@ -14172,7 +14183,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
         <v>49430</v>
       </c>
@@ -14190,7 +14201,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
         <v>49461</v>
       </c>
@@ -14208,7 +14219,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
         <v>49491</v>
       </c>
@@ -14226,7 +14237,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
         <v>49522</v>
       </c>
@@ -14244,7 +14255,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
         <v>49553</v>
       </c>
@@ -14262,7 +14273,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
         <v>49583</v>
       </c>
@@ -14280,7 +14291,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
         <v>49614</v>
       </c>
@@ -14298,7 +14309,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
         <v>49644</v>
       </c>
@@ -14316,7 +14327,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
         <v>49675</v>
       </c>
@@ -14334,7 +14345,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
         <v>49706</v>
       </c>
@@ -14352,7 +14363,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
         <v>49735</v>
       </c>
@@ -14370,7 +14381,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
         <v>49766</v>
       </c>
@@ -14388,7 +14399,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
         <v>49796</v>
       </c>
@@ -14406,7 +14417,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
         <v>49827</v>
       </c>
@@ -14424,7 +14435,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
         <v>49857</v>
       </c>
@@ -14442,7 +14453,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
         <v>49888</v>
       </c>
@@ -14460,7 +14471,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
         <v>49919</v>
       </c>
@@ -14478,7 +14489,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
         <v>49949</v>
       </c>
@@ -14496,7 +14507,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
         <v>49980</v>
       </c>
@@ -14514,7 +14525,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
         <v>50010</v>
       </c>
@@ -14532,7 +14543,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
         <v>50041</v>
       </c>
@@ -14550,7 +14561,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
         <v>50072</v>
       </c>
@@ -14568,7 +14579,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
         <v>50100</v>
       </c>
@@ -14586,7 +14597,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
         <v>50131</v>
       </c>
@@ -14604,7 +14615,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
         <v>50161</v>
       </c>
@@ -14622,7 +14633,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40"/>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -14638,7 +14649,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="41"/>
       <c r="B627" s="15"/>
       <c r="C627" s="42"/>
@@ -14669,10 +14680,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14695,28 +14706,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -14729,7 +14740,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -14758,7 +14769,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>34.331000000000003</v>
       </c>
@@ -14788,17 +14799,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -14819,7 +14830,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -14846,7 +14857,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -14872,7 +14883,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -14898,7 +14909,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -14924,7 +14935,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -14950,7 +14961,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -14976,7 +14987,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -15002,7 +15013,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -15028,7 +15039,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -15048,7 +15059,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -15068,7 +15079,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -15088,7 +15099,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -15109,7 +15120,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -15130,7 +15141,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -15151,7 +15162,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -15172,7 +15183,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -15193,7 +15204,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -15214,7 +15225,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -15235,7 +15246,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -15256,7 +15267,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -15277,7 +15288,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -15298,7 +15309,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -15319,7 +15330,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -15340,7 +15351,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -15361,7 +15372,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -15382,7 +15393,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -15403,7 +15414,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -15424,7 +15435,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -15445,7 +15456,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -15466,7 +15477,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -15487,7 +15498,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -15508,7 +15519,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -15517,7 +15528,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -15526,7 +15537,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -15535,7 +15546,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -15544,7 +15555,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -15553,7 +15564,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -15562,7 +15573,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -15571,7 +15582,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -15580,7 +15591,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -15589,7 +15600,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -15598,7 +15609,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -15607,7 +15618,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -15616,7 +15627,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -15625,7 +15636,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -15634,7 +15645,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -15643,7 +15654,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -15652,7 +15663,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -15661,7 +15672,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -15670,7 +15681,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -15679,7 +15690,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -15688,7 +15699,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -15697,7 +15708,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -15706,7 +15717,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -15715,7 +15726,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -15724,7 +15735,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -15733,7 +15744,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -15742,7 +15753,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -15751,7 +15762,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -15760,7 +15771,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -15769,7 +15780,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
